--- a/biology/Histoire de la zoologie et de la botanique/Auguste_Aymard/Auguste_Aymard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Auguste_Aymard/Auguste_Aymard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auguste Aymard, né le 5 décembre 1808 au Puy-en-Velay (Haute-Loire), et mort le 26 juin 1889 dans cette même ville[1],[2], est un préhistorien et paléontologue français. Il est célèbre pour sa découverte et pour l'invention de l'espèce fossile Entelodon magnus, grand mammifère du sous-ordre des Suina.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auguste Aymard, né le 5 décembre 1808 au Puy-en-Velay (Haute-Loire), et mort le 26 juin 1889 dans cette même ville est un préhistorien et paléontologue français. Il est célèbre pour sa découverte et pour l'invention de l'espèce fossile Entelodon magnus, grand mammifère du sous-ordre des Suina.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Aymard a travaillé comme archiviste départemental de la Haute-Loire et conservateur du Musée du Puy-en-Velay. Il a été membre puis président de la Société académique du Puy-en-Velay et de la Haute-Loire. Il découvrit des sites archéologiques et y entreprit des fouilles, notamment au Puy, à Polignac et à Espaly-Saint-Marcel.
 </t>
@@ -542,10 +556,12 @@
           <t>Inventeur du genre Entelodon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a décrit l'espèce Entelodon magnus, découverte en Haute-Loire en 1848 dans des sédiments de l'Oligocène[3].
-Elle constitue aujourd'hui l'espèce-type pour le genre Entelodon et a donné son nom à la famille éteinte d'artiodactyles des Entelodontidae[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a décrit l'espèce Entelodon magnus, découverte en Haute-Loire en 1848 dans des sédiments de l'Oligocène.
+Elle constitue aujourd'hui l'espèce-type pour le genre Entelodon et a donné son nom à la famille éteinte d'artiodactyles des Entelodontidae.
 </t>
         </is>
       </c>
@@ -574,14 +590,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[1847] « Des fossiles humains trouvés sur la Montagne de Denize, près le Puy, des ossements de mammifère signalés dans les divers dépôts de la Haute-Loire, et de l'époque probable de leur enfouissement », Bulletin de la Société géologique de France, t. 5, 2e série, séance du 22 novembre 1847,‎ 1847, p. 49- (lire en ligne [sur biodiversitylibrary.org], consulté en août 2021).
-[1848] « Essai monographique sur un nouveau genre de Mammifère fossile trouvé dans la Haute-Loire, et nommé Entélodon », Annales de la Société d'agriculture, sciences, arts et commerce du Puy, t. 12,‎ 1848, p. 227–268 (résumé).
-[1854] « Acquisitions d’ossements fossiles trouvés à Sainzelle, commune de Polignac; aperçu descriptif sur ce curieux gisement et détermination des espèces fossiles qu’il renferme », Annales de la Société d'agriculture, sciences, arts et commerce du Puy, t. 18,‎ 1854, p. 51–54 (lire en ligne [sur gallica]).
-[1854] « Des terrains fossilifères du bassin supérieur de la Loire », Comptes-rendus des Séances de l'Académie des Sciences de Paris, t. 38,‎ janvier-juin 1854, p. 673–677 (lire en ligne [sur gallica]).
-[1855] « Sur les cavernes du Velay qui ont été anciennement habitées », Congrès scientifique de France, Le Puy,‎ 1855, p. 654.
-[1856] Recherches archéologiques dans la Haute-Loire, Le Puy, impr. de Vve Guilhaume, 1856, 45 p. (présentation en ligne).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> « Des fossiles humains trouvés sur la Montagne de Denize, près le Puy, des ossements de mammifère signalés dans les divers dépôts de la Haute-Loire, et de l'époque probable de leur enfouissement », Bulletin de la Société géologique de France, t. 5, 2e série, séance du 22 novembre 1847,‎ 1847, p. 49- (lire en ligne [sur biodiversitylibrary.org], consulté en août 2021).
+ « Essai monographique sur un nouveau genre de Mammifère fossile trouvé dans la Haute-Loire, et nommé Entélodon », Annales de la Société d'agriculture, sciences, arts et commerce du Puy, t. 12,‎ 1848, p. 227–268 (résumé).
+ « Acquisitions d’ossements fossiles trouvés à Sainzelle, commune de Polignac; aperçu descriptif sur ce curieux gisement et détermination des espèces fossiles qu’il renferme », Annales de la Société d'agriculture, sciences, arts et commerce du Puy, t. 18,‎ 1854, p. 51–54 (lire en ligne [sur gallica]).
+ « Des terrains fossilifères du bassin supérieur de la Loire », Comptes-rendus des Séances de l'Académie des Sciences de Paris, t. 38,‎ janvier-juin 1854, p. 673–677 (lire en ligne [sur gallica]).
+ « Sur les cavernes du Velay qui ont été anciennement habitées », Congrès scientifique de France, Le Puy,‎ 1855, p. 654.
+ Recherches archéologiques dans la Haute-Loire, Le Puy, impr. de Vve Guilhaume, 1856, 45 p. (présentation en ligne).
 Sur les autres projets Wikimedia :
 Auguste Aymard, sur Wikisource
 </t>
